--- a/output_examples/seo_posts.xlsx
+++ b/output_examples/seo_posts.xlsx
@@ -464,31 +464,31 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>{
-    "article_title": "Navigating the Future: Strategies for Combating Climate Change Through Sustainable Practices",
+    "article_title": "Navigating the Future: The Impact of Climate Change and Our Path Forward",
     "sections": [
         {
             "headline": "Understanding Climate Change and Global Warming",
-            "body": "Climate change refers to significant changes in global temperatures and weather patterns over time. While climate change is a natural phenomenon, scientific evidence shows that human activities have been the primary driver of climate change since the 20th century, primarily due to the burning of fossil fuels like coal, oil, and gas. Global warming, a subset of climate change, refers to the Earth's rising surface temperature. The increase in temperatures triggers various environmental changes, such as melting ice caps, rising sea levels, and extreme weather events. Understanding the distinction and interconnection between climate change and global warming is crucial for developing effective strategies to mitigate their impacts."
-        },
-        {
-            "headline": "The Impact of Carbon Footprint on the Environment",
-            "body": "A 'carbon footprint' represents the total greenhouse gas emissions caused directly and indirectly by an individual, organization, event, or product. It is measured in units of carbon dioxide equivalents. These gases, including methane and carbon dioxide, trap heat in the atmosphere and contribute to global warming. Reducing the carbon footprint is essential for mitigating climate change. This can be achieved through various means such as enhancing energy efficiency, shifting towards renewable energy sources, reducing waste, and promoting sustainable consumption practices."
-        },
-        {
-            "headline": "Renewable Energy: A Cornerstone for Mitigating Climate Change",
-            "body": "Renewable energy comes from natural sources or processes that are constantly replenished. This includes sunlight, wind, rain, tides, and geothermal heat. Unlike fossil fuels, renewable energy sources produce little to no greenhouse gases and thus have a minimal impact on global warming. Transitioning to renewable energy is crucial for reducing the global carbon footprint. Solar and wind energy have become increasingly cost-effective and are pivotal in driving the shift towards a sustainable energy future. Governments and businesses worldwide are investing in renewable energy projects to secure energy independence and reduce environmental impact."
-        },
-        {
-            "headline": "Environmental Policy: Governing for a Greener Future",
-            "body": "Environmental policy refers to the commitment of an organization or government to the laws, regulations, and other policy mechanisms concerning environmental issues. These policies aim to address the problems of global warming and climate change by promoting sustainable practices and reducing environmental footprints. Key elements include regulations on emissions, incentives for renewable energy, and penalties for environmental violations. Effective environmental policies ensure that individuals, corporations, and governments consider the long-term impacts of their actions on the planet."
-        },
-        {
-            "headline": "Implementing Sustainability Practices: From Theory to Action",
-            "body": "Sustainability practices involve using resources in a way that does not deplete them. Sustainable practices can significantly reduce our carbon footprint and mitigate the effects of climate change. This includes adopting energy-efficient appliances, reducing waste through recycling and composting, and supporting sustainable farming practices. Businesses can contribute by implementing green policies in the workplace, reducing resource consumption, and ensuring that their products are environmentally friendly. Consumers play a role by making conscious choices that prioritize sustainability."
-        },
-        {
-            "headline": "The Role of Individuals in Combating Climate Change",
-            "body": "Every individual has the power to impact the environment positively. Simple actions such as reducing energy use, choosing public transport, using energy-efficient appliances, and supporting sustainable businesses can make a significant difference. Educating oneself and others about the impacts of climate change and sustainable practices can also lead to greater environmental awareness and action. By taking small steps together, individuals can drive the collective action needed to mitigate the adverse effects of climate change."
+            "body": "Climate change refers to significant changes in global temperatures and weather patterns over time. While climate has changed throughout Earth's history, recent decades have seen unprecedented changes, largely attributed to human activities. Global warming, a subset of climate change, specifically denotes the ongoing rise in global average temperatures, primarily due to the increase in carbon dioxide and other greenhouse gases in the atmosphere. These gases trap heat from the sun, causing the Earth's temperature to rise, leading to a myriad of environmental issues including melting ice caps, rising sea levels, and extreme weather events. Understanding the distinction and interconnection between climate change and global warming is crucial for addressing the challenges they pose."
+        },
+        {
+            "headline": "The Role of Carbon Footprint in Climate Change",
+            "body": "A 'carbon footprint' measures the total greenhouse gas emissions caused directly and indirectly by an individual, organization, event, or product. It is expressed as carbon dioxide equivalent, which accounts for the different global warming impacts of other gases. Activities such as burning fossil fuels, deforestation, and industrial processes contribute to high carbon footprints. Reducing our carbon footprint is vital in mitigating climate change. This can be achieved through energy efficiency, adopting renewable energy sources, reducing waste, and improving transportation methods. Each step toward a smaller carbon footprint can significantly impact the fight against global warming."
+        },
+        {
+            "headline": "Renewable Energy: A Sustainable Solution",
+            "body": "Renewable energy comes from natural sources that are constantly replenished, such as sunlight, wind, and water. Unlike fossil fuels, renewable energy sources produce little to no greenhouse gases and are sustainable over the long term. The transition to renewable energy is critical in combating climate change. Solar panels, wind turbines, and hydroelectric plants are examples of technologies harnessing renewable energy. Governments and businesses worldwide are increasingly investing in renewable energy projects, which not only help reduce carbon footprints but also generate economic benefits through job creation in new industries."
+        },
+        {
+            "headline": "Environmental Policy: Frameworks for Action",
+            "body": "Environmental policy refers to the laws, regulations, and other policy mechanisms concerning environmental issues and sustainability practices. These policies are crucial for addressing the causes and effects of climate change. They can range from local recycling guidelines to international agreements like the Paris Agreement, which sets comprehensive action plans for countries to mitigate and adapt to climate change. Effective environmental policies ensure that businesses, governments, and individuals have a roadmap for achieving more sustainable practices and reducing their impact on the planet."
+        },
+        {
+            "headline": "Implementing Sustainability Practices",
+            "body": "Sustainability practices involve using resources in a way that does not deplete them for future generations. This includes sustainable farming, water conservation, waste reduction, and eco-friendly building practices. Businesses adopting sustainability practices often follow standards such as ISO 14001, which helps manage their environmental responsibilities. Moreover, consumers are increasingly favoring products and services that are not only economically viable but also environmentally responsible. Implementing these practices requires a shift in how we think about production, consumption, and waste, emphasizing the importance of long-term over short-term gains."
+        },
+        {
+            "headline": "The Road Ahead: Collective Efforts and Individual Actions",
+            "body": "The fight against climate change requires collective efforts from governments, businesses, communities, and individuals. While international policies and agreements provide a framework, local actions and individual responsibility play a crucial role. Simple actions like reducing energy use, supporting renewable energy initiatives, and advocating for stronger environmental policies can make a significant difference. Education and awareness are also key, as they empower people to make informed decisions and support sustainable initiatives. Together, through informed choices and sustainable living, we can combat climate change and create a healthier planet for future generations."
         }
     ]
 }</t>
@@ -509,35 +509,35 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>{
-    "article_title": "Empowering Students: Navigating the Digital World with Confidence",
+    "article_title": "Empowering the Next Generation: A Comprehensive Guide to Digital Literacy and Online Safety",
     "sections": [
         {
             "headline": "Introduction to Digital Literacy",
-            "body": "In today's rapidly evolving digital landscape, the ability to effectively use and understand technology is crucial. Digital literacy is not just about knowing how to use gadgets; it's about critically understanding, evaluating, and utilizing information in multiple formats from a wide range of sources. For students, digital literacy means acquiring a set of skills that prepares them for a lifetime of learning in a technology-driven world. This includes everything from basic computer skills to the ability to engage with online content critically."
-        },
-        {
-            "headline": "The Importance of Online Safety",
-            "body": "As the internet becomes increasingly integral to everyday activities, online safety emerges as a fundamental aspect of digital literacy. Students need to learn how to protect themselves from potential online threats such as scams, phishing, and malware. This involves understanding the importance of maintaining privacy settings, recognizing secure websites, and knowing the implications of sharing personal information online. Educating students about online safety helps them make informed decisions and navigate the internet securely."
-        },
-        {
-            "headline": "Social Media Education: A Must for Today's Students",
-            "body": "Social media platforms are powerful tools for communication, learning, and networking. However, they also present unique challenges and responsibilities. Social media education is crucial in helping students understand how to use these platforms responsibly and ethically. This includes lessons on digital footprints, the impact of online posts, and the importance of digital etiquette. By educating students on these aspects, we empower them to build a positive online presence and use social media to enhance their learning and personal growth."
-        },
-        {
-            "headline": "Understanding and Combating Cyberbullying",
-            "body": "Cyberbullying is a growing concern in the digital age, with long-lasting effects on victims. Digital literacy includes awareness and strategies to combat cyberbullying. Students must be taught how to identify cyberbullying and understand its consequences. Schools and educators play a pivotal role in fostering a supportive online environment and teaching students how to report and deal with cyberbullying. Empowering students with this knowledge helps create a safer and more respectful online community."
+            "body": "In today's rapidly evolving digital landscape, being digitally literate is no longer just an advantage; it's a necessity. Digital literacy encompasses a range of skills and knowledge that enables individuals to effectively and safely navigate the vast world of technology. This includes understanding how to use internet resources, engaging with social media responsibly, and recognizing the importance of online safety. As technology becomes increasingly integral in education, careers, and personal lives, equipping students with these skills is crucial for their success and well-being."
+        },
+        {
+            "headline": "Understanding Online Safety",
+            "body": "Online safety is a critical component of digital literacy. It involves protecting personal information, understanding privacy settings, and recognizing potential online threats. This section delves into practical strategies for maintaining safety on the internet, such as creating strong, unique passwords, being wary of sharing too much personal information, and understanding the security features of different platforms. By mastering these skills, students can protect themselves from identity theft, scams, and other online risks."
+        },
+        {
+            "headline": "Navigating Social Media Education",
+            "body": "Social media is a powerful tool for communication, learning, and networking. However, it also presents unique challenges and risks. This section explores the importance of social media education in helping students understand how to use these platforms responsibly and effectively. Topics include managing digital footprints, understanding the impact of online behavior on real-life opportunities, and using social media to foster positive connections and learning experiences. Additionally, we'll discuss the role of educators and parents in guiding students through the complex social media landscape."
+        },
+        {
+            "headline": "Addressing Cyberbullying Awareness",
+            "body": "Cyberbullying is a serious issue that can have profound emotional and psychological effects on students. This section addresses the importance of cyberbullying awareness and outlines strategies for prevention and intervention. We'll cover how to recognize signs of cyberbullying, the importance of fostering a supportive online environment, and the steps to take if one encounters or witnesses cyberbullying. Empowering students to stand up against cyberbullying is a vital part of building a safe and respectful online community."
         },
         {
             "headline": "Leveraging Internet Resources for Education",
-            "body": "The internet is a treasure trove of resources that can significantly enhance educational outcomes. Digital literacy involves teaching students how to effectively find, evaluate, and use these resources. This includes understanding how to use search engines effectively, evaluating the credibility of sources, and utilizing online educational tools and libraries. By mastering these skills, students can take charge of their learning and access a wide array of information and learning opportunities available online."
-        },
-        {
-            "headline": "Developing Technology Skills for Academic and Personal Success",
-            "body": "Technology skills are an essential component of digital literacy. Students must be proficient in using technology not only to succeed academically but also to prepare for future careers. This includes everything from basic computer operations and software use to more advanced skills like coding, digital content creation, and data analysis. Schools should provide comprehensive technology education that includes hands-on learning to help students develop these critical skills."
-        },
-        {
-            "headline": "Conclusion: Building a Digitally Literate Future",
-            "body": "Digital literacy is an essential skill for students in the 21st century. By integrating online safety, social media education, cyberbullying awareness, and effective use of internet resources into the curriculum, educators can provide students with the tools they need to succeed both online and offline. As technology continues to evolve, so too must our approach to digital literacy education, ensuring that students are not only consumers of digital content but also skilled navigators and creators of the digital world."
+            "body": "The internet is a treasure trove of resources that can enhance learning and development. This section highlights how students can effectively utilize these resources for educational purposes. We'll explore reputable educational websites, online libraries, and e-learning platforms that offer valuable content across various subjects. Additionally, we'll discuss critical evaluation skills to distinguish credible sources from misleading information, enhancing students' research capabilities and academic integrity."
+        },
+        {
+            "headline": "Developing Technology Skills for Students",
+            "body": "To thrive in the digital age, students must develop robust technology skills. This final section focuses on essential technology skills for students, including basic coding, understanding digital devices and software, and troubleshooting common tech issues. We'll also discuss the importance of continuous learning and adaptation as technology evolves. By fostering these skills, students not only enhance their academic and career prospects but also become proactive participants in the digital world."
+        },
+        {
+            "headline": "Conclusion",
+            "body": "Digital literacy is an essential skill set that encompasses online safety, social media education, cyberbullying awareness, and effective use of internet resources. By cultivating these skills, students are better prepared to navigate the complexities of the digital world safely and responsibly. Educators, parents, and communities play a crucial role in supporting students in this journey, ensuring they leverage technology to enhance their lives and the lives of others around them."
         }
     ]
 }</t>
@@ -562,31 +562,31 @@
     "sections": [
         {
             "headline": "Introduction to Healthy Eating",
-            "body": "Embarking on a journey towards healthy eating is not just about choosing the right foods, but understanding the principles of nutrition and how they contribute to your overall health. This guide will explore the essentials of a balanced diet, delve into nutrition facts that matter, and provide practical cooking tips and meal planning strategies to help you maintain a healthy lifestyle. Whether you're a seasoned health enthusiast or just starting out, understanding the basics of healthy eating can empower you to make informed decisions that benefit your health and well-being."
-        },
-        {
-            "headline": "The Fundamentals of a Balanced Diet",
-            "body": "A balanced diet is crucial for providing the body with the necessary nutrients it needs to function optimally. It includes a variety of foods from all the major food groups: fruits, vegetables, grains, protein sources, and dairy. Each group offers unique essential nutrients that contribute to your health. For instance, fruits and vegetables provide vitamins and minerals, grains contribute fiber and energy, proteins are essential for muscle repair and growth, and dairy products offer calcium for bone health. To achieve a balanced diet, aim to incorporate a diverse range of foods in your meals, ensuring that you get a wide spectrum of nutrients necessary for your body's needs."
-        },
-        {
-            "headline": "Understanding Nutrition Facts",
-            "body": "Reading and understanding nutrition facts is a key skill in managing your dietary habits. Nutrition labels on food packages provide valuable information about the calorie content, amount of fats, carbohydrates, proteins, vitamins, and minerals in a serving. To eat healthily, focus on foods that are rich in essential nutrients but lower in calories and unhealthy fats. Pay attention to serving sizes to avoid overeating, and be wary of high sodium and sugar content, which can lead to health issues if consumed in excess. By becoming proficient in reading these labels, you can make healthier choices that align with your dietary goals."
+            "body": "Embarking on a journey towards healthy eating is not just about choosing the right foods, but understanding the principles of nutrition and how they impact your overall health. This guide will explore the essentials of a balanced diet, delve into nutrition facts that matter, and provide practical cooking tips and meal planning strategies to help you maintain a healthy lifestyle. Whether you're a seasoned health enthusiast or just starting out, understanding the basics of healthy eating can lead to improved health, better energy levels, and a more vibrant life."
+        },
+        {
+            "headline": "Understanding a Balanced Diet",
+            "body": "A balanced diet is crucial for providing the body with the necessary nutrients it needs to function optimally. It includes a variety of foods from all the major food groups: fruits, vegetables, grains, protein sources, and dairy. Each group offers unique essential nutrients that contribute to your health. For instance, fruits and vegetables provide vitamins and minerals crucial for immune function and energy metabolism, while proteins are essential for muscle repair and growth. Grains, especially whole grains, are a good source of fiber and energy. Incorporating a variety of these foods in the right proportions ensures that you receive a comprehensive array of nutrients every day."
+        },
+        {
+            "headline": "Decoding Nutrition Facts",
+            "body": "Understanding nutrition labels is key to making informed food choices. Nutrition facts provide information about calorie content, amounts of fat, cholesterol, sodium, carbohydrates, dietary fiber, sugars, protein, and sometimes vitamins and minerals. When reading labels, it's important to look at the serving size and compare it to how much you actually eat. This can help you better manage your intake of certain nutrients. For instance, if you're watching your sodium intake, comparing labels can help you choose foods with lower sodium percentages per serving."
         },
         {
             "headline": "Cooking Tips for Healthier Meals",
-            "body": "Cooking at home is a fantastic way to control what goes into your meals and ensure they are healthy. Here are some tips to keep your cooking healthy and delicious: Use healthy oils like olive or canola oil instead of butter or margarine; opt for baking, steaming, or grilling methods over frying; incorporate plenty of herbs and spices to reduce the need for excess salt; and always choose whole-grain options when available. Additionally, try to include at least one fruit or vegetable in every meal to boost your nutrient intake. These simple adjustments can make a significant difference in the nutritional quality of your meals."
+            "body": "Cooking at home can be a delightful way to ensure you're eating healthily. Here are some tips to keep your meals nutritious: Use less oil and choose healthier oils like olive or canola; incorporate plenty of herbs and spices for flavor without the extra calories; steam or bake instead of frying; and make sure to include a variety of colors in your meals, as this often means a good mix of different nutrients. Additionally, cooking methods like grilling or broiling can help retain nutrients that might be lost during boiling."
         },
         {
             "headline": "The Benefits of Organic Foods",
-            "body": "Organic foods are grown without the use of synthetic pesticides, fertilizers, and other chemicals, making them a healthier option for both the environment and your body. They often contain higher levels of certain nutrients, including antioxidants, and can be free from genetically modified organisms (GMOs). While organic foods can be more expensive, their benefits to health and the environment can justify the cost for many people. Incorporating organic foods into your diet can be a step towards a more natural, toxin-free lifestyle."
+            "body": "Organic foods are grown without the use of synthetic pesticides, genetically modified organisms (GMOs), and artificial fertilizers. Many people choose organic options for potential health benefits and environmental reasons. While organic foods are not necessarily more nutritious than their conventional counterparts, they reduce your exposure to potentially harmful chemicals and contribute to more sustainable farming practices. When shopping for organic foods, look for labels that certify the product is organic to ensure you're getting genuine products."
         },
         {
             "headline": "Effective Meal Planning Strategies",
-            "body": "Meal planning is a powerful tool for maintaining a healthy diet. It involves planning your meals ahead of time, which can help you make healthier choices, save time during busy days, and reduce food waste. Start by planning out your meals for the week and make a shopping list based on the ingredients you need. This prevents impulsive buys that might not be healthy. Prepare and portion meals in advance to avoid the temptation of fast food on hectic days. Lastly, be flexible and allow for adjustments based on your schedule and mood to keep your meal plan realistic and manageable."
+            "body": "Meal planning is a powerful tool for maintaining a healthy diet. It involves thinking ahead and preparing meals for the upcoming days or week. Start by planning balanced meals that include a variety of food groups. Make a grocery list based on your meal plan to avoid impulse buys and ensure you have all the necessary ingredients. Preparing meals in advance can save time during busy weekdays and helps you stick to your healthy eating goals. Additionally, consider portion sizes to avoid overeating. Meal planning not only helps with weight management but also reduces food waste and saves money."
         },
         {
             "headline": "Conclusion",
-            "body": "Healthy eating is a multifaceted approach that involves more than just choosing the right foods; it requires understanding the principles of nutrition, making informed decisions, and being proactive about meal preparation. By following the guidelines discussed in this guide—from maintaining a balanced diet and understanding nutrition facts, to cooking healthier meals and incorporating organic options—you can enhance your health and enjoy a more vibrant life. Remember, the journey to healthy eating is a personal one, and what works best for you might be different for someone else. Embrace the process and make adjustments as needed to suit your unique nutritional needs and lifestyle."
+            "body": "Healthy eating is a multifaceted approach that involves more than just choosing the right foods; it requires understanding the nutritional value of foods, making informed choices, and preparing meals that satisfy both taste and health requirements. By incorporating the principles of a balanced diet, understanding nutrition facts, utilizing cooking tips, opting for organic options when possible, and planning meals effectively, you can enhance your health and enjoy a richer, more fulfilling lifestyle. Remember, the journey to healthy eating is a personal one, and small, consistent changes can lead to significant health benefits over time."
         }
     ]
 }</t>
@@ -611,31 +611,31 @@
     "sections": [
         {
             "headline": "Introduction to Modern Fitness Trends",
-            "body": "As we navigate through 2023, the landscape of fitness continues to evolve, adapting to new technologies, lifestyle changes, and personal health goals. Fitness enthusiasts and beginners alike are exploring various trends that not only promise effective results but also align with their daily routines and preferences. This article delves into the most popular fitness trends of the year, including home workouts, wearable tech, the benefits of yoga, high-intensity interval training (HIIT), and the role of fitness apps. Each of these trends offers unique advantages and can be tailored to fit individual needs, ensuring that staying fit is more accessible and enjoyable than ever."
+            "body": "As we navigate through 2023, the landscape of fitness continues to evolve, adapting to new technologies, lifestyle changes, and personal health goals. Fitness enthusiasts and beginners alike are exploring various trends that not only promise effective results but also align with their daily routines and preferences. This article delves into the most popular fitness trends of the year, including home workouts, wearable tech, the benefits of yoga, high-intensity interval training (HIIT), and the role of fitness apps. Each of these trends offers unique advantages and can be tailored to fit individual needs, ensuring that staying fit is accessible and enjoyable for everyone."
         },
         {
             "headline": "Home Workouts: Convenience Meets Fitness",
-            "body": "The surge in home workouts can be attributed to their unmatched convenience and cost-effectiveness. With the ongoing enhancements in online resources, more people are turning their living spaces into personal gyms. From YouTube tutorials to subscription-based services, there are endless options to choose from. Home workouts are not only flexible but also allow individuals to exercise at their own pace, making fitness more inclusive for people with busy schedules or those who prefer a private setting to a public gym. Additionally, the variety of available workouts means that everyone, from beginners to advanced athletes, can find something suitable."
+            "body": "The shift towards home workouts has been one of the most significant trends accelerated by recent global events. With the advent of numerous online platforms and streaming services, exercising from the comfort of your home has never been easier. Home workouts offer a flexible solution for those with busy schedules or limited access to traditional gym facilities. From yoga mats to resistance bands and free weights, setting up a home gym can be simple and cost-effective. Additionally, many fitness apps and websites provide guided workout sessions, ranging from low-impact exercises to high-intensity regimes, catering to all fitness levels and preferences."
         },
         {
             "headline": "Wearable Tech: Your Fitness Companion",
-            "body": "Wearable technology has revolutionized the way we track our fitness progress. Devices like fitness trackers, smartwatches, and heart rate monitors provide real-time data on our health metrics such as steps taken, calories burned, heart rate, and even sleep quality. This immediate feedback not only motivates users to push their limits but also helps in fine-tuning their fitness routines for better results. Brands like Fitbit, Apple, and Garmin are at the forefront, continuously innovating to include features like GPS tracking, personalized workout suggestions, and integration with various fitness apps."
+            "body": "Wearable technology has revolutionized the way we track and manage our fitness routines. Devices such as fitness trackers, smartwatches, and heart rate monitors not only track steps and calories but also provide insights into sleep patterns, heart rate variability, and even stress levels. These gadgets encourage users to stay active and achieve their daily fitness goals by offering personalized data and progress reports. Moreover, the integration of these devices with smartphones and fitness apps allows for a seamless fitness management experience, making it easier to set goals, monitor progress, and maintain motivation."
         },
         {
             "headline": "Exploring the Benefits of Yoga",
-            "body": "Yoga, an ancient practice with modern relevance, offers numerous benefits that extend beyond physical fitness. It enhances flexibility, strength, and balance but also contributes significantly to mental health by reducing stress and anxiety. Regular yoga practice can improve concentration, sleep patterns, and overall well-being. Furthermore, yoga is highly adaptable; there are styles and poses varying in intensity and focus, making it suitable for all ages and fitness levels. Whether it's through a local class or an online platform, incorporating yoga into your routine can lead to profound health transformations."
+            "body": "Yoga continues to be a popular choice for those seeking a holistic approach to health and wellness. Beyond its physical benefits, such as increased flexibility, strength, and balance, yoga offers profound mental and emotional benefits. Regular practice can lead to improved concentration, reduced stress levels, and a greater sense of peace. Additionally, yoga's adaptability makes it suitable for all ages and fitness levels, with various styles ranging from gentle hatha yoga to more intense forms like vinyasa or power yoga. Incorporating yoga into your routine can lead to significant improvements in overall well-being."
         },
         {
             "headline": "High-Intensity Interval Training (HIIT): Quick and Effective",
-            "body": "HIIT has gained popularity for its efficiency and effectiveness. These short, intense workouts are designed to elevate your heart rate quickly, with intervals of rest or low-intensity exercises in between. Typically lasting under 30 minutes, HIIT sessions can burn a significant amount of calories in a short period and increase metabolic rate even after the workout is over. This makes HIIT an ideal choice for those looking to achieve quick results but have limited time. Moreover, HIIT can be performed with minimal equipment, making it a versatile option for both gym-goers and home exercisers."
-        },
-        {
-            "headline": "Fitness Apps: Tailoring Your Personal Workout Plan",
-            "body": "In the digital age, fitness apps have become an essential tool for anyone looking to personalize their workout experience. These apps offer a range of functionalities from setting fitness goals and tracking progress to providing customized workout and nutrition plans. Popular apps like MyFitnessPal, Strava, and Nike Training Club help users stay motivated by connecting them with a community of like-minded individuals and offering challenges and rewards. Whether you're a beginner or an experienced athlete, fitness apps can provide the insights and encouragement needed to stay on track with your fitness journey."
-        },
-        {
-            "headline": "Conclusion: Integrating Trends for a Holistic Approach",
-            "body": "The fitness trends of 2023 reflect a broader shift towards more personalized, accessible, and technology-driven approaches to health and wellness. By integrating these trends into your routine, you can enjoy a more dynamic, efficient, and enjoyable fitness journey. Whether it's through high-tech wearables, the mental and physical benefits of yoga, the intensity of HIIT, the convenience of home workouts, or the guidance of fitness apps, there's something for everyone in the evolving world of fitness. Embrace these trends and tailor them to fit your lifestyle and goals, ensuring a healthier, fitter future."
+            "body": "High-intensity interval training, or HIIT, has gained popularity for its efficiency and effectiveness in burning calories and improving cardiovascular health. HIIT involves short bursts of intense exercise followed by periods of rest or low-intensity activity. This method not only maximizes calorie burn during the workout but also enhances the afterburn effect, leading to increased metabolic rates for hours after the session. HIIT workouts can be performed with minimal equipment and adapted for any space, making them ideal for both gym environments and home settings."
+        },
+        {
+            "headline": "The Role of Fitness Apps in Personalized Workouts",
+            "body": "Fitness apps have become essential tools for many looking to personalize their workout experiences. These apps offer a wide range of functionalities, from providing customized workout plans and nutritional guidance to connecting users with fitness communities for support and motivation. Popular apps like MyFitnessPal, Strava, and Nike Training Club use algorithms to adapt to the user's fitness level and preferences, making it easier to achieve specific health goals. Additionally, many apps now feature integration with wearable devices, enhancing the ability to track and analyze personal health data comprehensively."
+        },
+        {
+            "headline": "Conclusion: Adapting to the Evolving Fitness Landscape",
+            "body": "The fitness trends of 2023 reflect a broader shift towards more personalized, accessible, and technology-driven approaches to health and wellness. Whether through the convenience of home workouts, the analytical power of wearable tech, the holistic benefits of yoga, the efficiency of HIIT, or the personalized guidance of fitness apps, these trends cater to a wide range of preferences and needs. By embracing these trends, individuals can find more enjoyable, effective, and sustainable ways to maintain their fitness and overall health, regardless of their starting point or fitness level."
         }
     ]
 }</t>
@@ -656,35 +656,35 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>{
-    "article_title": "Mastering Personal Finance: Essential Strategies for Every Stage of Life",
+    "article_title": "Mastering Personal Finance: From Budgeting to Investing",
     "sections": [
         {
             "headline": "Introduction to Personal Finance",
-            "body": "Navigating the world of personal finance can be daunting, yet mastering it is essential for achieving financial stability and meeting long-term goals. Whether you're planning for retirement, looking to enhance your credit score, or simply aiming to tighten your monthly budget, understanding the basics of personal finance is the first step. This guide will walk you through fundamental strategies including budgeting tips, saving techniques, retirement planning, investing basics, and credit score management, tailored to help you build a robust financial future."
-        },
-        {
-            "headline": "Budgeting Tips for Financial Success",
-            "body": "Budgeting is the cornerstone of personal finance. It involves tracking your income and expenses to better control your financial outcomes. Start by listing all sources of income, followed by a detailed account of monthly expenses, including both fixed costs (like rent and car payments) and variable costs (such as groceries and entertainment). Utilize budgeting apps or spreadsheets to maintain a clear overview. Aim to follow the 50/30/20 rule where 50% of your income goes to necessities, 30% to wants, and 20% to savings and debt repayment. Regularly reviewing and adjusting your budget is crucial as your financial situation evolves."
-        },
-        {
-            "headline": "Effective Saving Strategies for a Secure Future",
-            "body": "Saving money is vital for both immediate needs and future financial security. Start by setting clear, achievable goals (short-term, medium-term, and long-term) and determine how much you need to save to reach them. Automate your savings to ensure a portion of your income is directly transferred to a savings account, making it less tempting to spend. Consider high-interest savings accounts or certificates of deposit for better returns on your savings. Additionally, take advantage of any employer-matched retirement plans, such as 401(k)s, which can significantly boost your retirement savings."
-        },
-        {
-            "headline": "Retirement Planning: Preparing for the Golden Years",
-            "body": "Planning for retirement should begin early to take full advantage of compound interest and investment growth over time. First, estimate your retirement needs based on your desired lifestyle and expected expenses. Contribute regularly to retirement accounts like IRAs and 401(k)s, and maximize your contributions if possible. Diversify your investment portfolio to include a mix of stocks, bonds, and other assets to optimize returns and minimize risks. Consider consulting with a financial advisor to tailor a retirement plan that aligns with your financial goals and risk tolerance."
+            "body": "Navigating the world of personal finance can be daunting, yet mastering it is essential for achieving financial stability and meeting long-term goals. Whether you're planning for retirement, looking to enhance your savings, or simply aiming to manage your monthly expenses more efficiently, understanding the basics of personal finance is the first step. This guide will walk you through essential strategies, from budgeting tips and saving techniques to retirement planning and investing basics, all tailored to help you build a solid financial foundation."
+        },
+        {
+            "headline": "Budgeting Tips for Effective Money Management",
+            "body": "Budgeting is the cornerstone of personal finance. It involves tracking your income and expenses to better understand where your money goes and how you can manage it more effectively. Start by listing all your sources of income, including salaries, bonuses, and any passive income streams. Next, categorize your expenses into fixed (like rent and utilities) and variable (such as dining out and entertainment). Use tools like budgeting apps or spreadsheets to keep track of these expenses. Aim to adopt the 50/30/20 rule where 50% of your income goes to necessities, 30% to wants, and 20% to savings and debt repayment. Regularly reviewing and adjusting your budget is crucial as your financial situation and goals evolve."
+        },
+        {
+            "headline": "Saving Strategies for Financial Security",
+            "body": "Saving money is crucial for both immediate needs and future financial security. Start by setting clear, achievable goals like building an emergency fund, saving for a down payment on a home, or planning a vacation. Automate your savings to ensure a portion of your income is directly transferred to a savings account, making it less tempting to spend. Consider high-interest savings accounts or certificates of deposit for better returns on your savings. Additionally, cutting down on non-essential expenses and shopping smarter by taking advantage of discounts and cash-back offers can boost your savings rate significantly."
+        },
+        {
+            "headline": "Retirement Planning: Securing Your Future",
+            "body": "Planning for retirement is a long-term commitment that should start as early as possible. Begin by estimating your retirement needs based on your desired lifestyle and expected expenses. Take full advantage of employer-sponsored retirement plans like 401(k)s, which often offer matching contributions. Additionally, explore Individual Retirement Accounts (IRAs) and Roth IRAs for more savings options. Investing in these accounts consistently over the years, taking into account the power of compounding interest, can significantly impact your retirement savings. Remember, the earlier you start, the more your money works for you."
         },
         {
             "headline": "Investing Basics for Beginners",
-            "body": "Investing can be an effective way to grow your wealth over time. Start with understanding the different types of investments available, such as stocks, bonds, mutual funds, and real estate. Each type carries different levels of risk and potential returns. Beginners should consider starting with low-cost index funds, which offer diversification and lower risk compared to individual stocks. It's important to align your investments with your financial goals and risk tolerance. Educate yourself continuously about financial markets and consider seeking advice from investment professionals."
-        },
-        {
-            "headline": "Managing and Improving Your Credit Score",
-            "body": "A healthy credit score is crucial for financial flexibility and obtaining loans with favorable terms. Start by regularly checking your credit report for inaccuracies and disputing any errors. Pay your bills on time and in full, as payment history is a significant factor in credit scoring. Keep your credit utilization ratio low — ideally under 30% of your total credit limit. Avoid opening multiple new credit accounts in a short period, as this can negatively impact your score. If you're building credit from scratch, consider secured credit cards or becoming an authorized user on a family member's account."
-        },
-        {
-            "headline": "Conclusion: Integrating Personal Finance Strategies",
-            "body": "Mastering personal finance requires a balanced approach integrating budgeting, saving, investing, and credit management. By setting clear financial goals, regularly reviewing your financial plan, and staying informed about financial best practices, you can navigate your financial journey with confidence. Remember, personal finance is a personal journey that evolves with your changing life circumstances and goals. Stay proactive and adaptable to ensure financial health and achieve your long-term objectives."
+            "body": "Investing is a powerful tool for building wealth, but it can seem complex to beginners. Start with the basics: understand different types of investments such as stocks, bonds, and mutual funds. Consider your risk tolerance and investment horizon before making any decisions. Diversifying your portfolio across different asset classes can reduce risk and improve potential returns. For those new to investing, mutual funds or exchange-traded funds (ETFs) can be a good start as they offer built-in diversification and are managed by professionals. Always do your research or consult with a financial advisor to make informed investment choices."
+        },
+        {
+            "headline": "Credit Score Management: Enhancing Your Financial Health",
+            "body": "A good credit score is essential for financial health, influencing your ability to obtain loans and the interest rates you pay. Start by regularly checking your credit report for errors and discrepancies. Make timely payments on all your debts, as payment history is a significant factor in credit scoring. Reduce your credit utilization ratio—the amount of credit you use compared to your credit limit—by paying down debts and keeping old credit accounts open to lengthen your credit history. If you're struggling with high-interest debt, consider strategies like debt consolidation or balance transfers to manage and reduce your debt more effectively."
+        },
+        {
+            "headline": "Conclusion: Building a Comprehensive Personal Finance Plan",
+            "body": "Mastering personal finance requires a comprehensive approach that includes effective budgeting, strategic saving, thoughtful investing, and diligent credit management. By integrating these elements into a cohesive financial plan, you can achieve greater financial stability and security. Regularly review and adjust your financial strategies to stay aligned with your changing needs and goals. Remember, the path to financial independence is a marathon, not a sprint, and every step you take towards understanding and managing your finances is a step towards a more secure financial future."
         }
     ]
 }</t>
@@ -705,35 +705,39 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>{
-    "article_title": "Navigating the Landscape of Mental Health: Strategies for Awareness and Wellness",
+    "article_title": "Empowering Your Well-being: A Comprehensive Guide to Mental Health Awareness",
     "sections": [
         {
-            "headline": "Understanding Mental Health and Its Importance",
-            "body": "Mental health encompasses our emotional, psychological, and social well-being, affecting how we think, feel, and act in daily life. It also determines how we handle stress, relate to others, and make choices. With the increasing complexities of modern life, mental health awareness has become more crucial than ever. Recognizing the early signs of mental health issues such as stress, anxiety, and depression can lead to timely interventions and a healthier life. This section aims to demystify mental health, emphasizing its importance in achieving overall wellness and productivity."
-        },
-        {
-            "headline": "Identifying Symptoms of Stress, Anxiety, and Depression",
-            "body": "Stress, anxiety, and depression are among the most common mental health challenges that can significantly impair an individual's quality of life. Stress is a response to a threat in a situation, whereas anxiety is a reaction to the stress. Depression is a persistent feeling of sadness and loss of interest that affects how you feel, think, and handle daily activities. Recognizing the symptoms is the first step towards managing these conditions effectively. Common signs include persistent worry, changes in sleep patterns, decreased energy, and feelings of worthlessness. Awareness of these symptoms allows for early intervention and management."
-        },
-        {
-            "headline": "Exploring Therapy Options for Mental Health",
-            "body": "Therapy is a vital tool in the management of mental health issues, offering a way to work through problems and develop coping strategies. There are various types of therapy available, including cognitive-behavioral therapy (CBT), which helps individuals challenge distorted thoughts and change destructive patterns of behavior; psychotherapy, which explores emotional issues and past experiences; and group therapy, which provides a support network. Therapy can be tailored to individual needs, making it a flexible and effective approach to mental health care."
-        },
-        {
-            "headline": "Stress Management Techniques for Everyday Relief",
-            "body": "Effective stress management helps maintain your overall mental health and mitigates the risk of developing related conditions like anxiety and depression. Techniques include time management, regular physical activity, maintaining a positive outlook, and practicing relaxation techniques such as deep breathing, meditation, and yoga. Additionally, setting realistic goals and breaking up large tasks into more manageable small steps can significantly reduce stress levels. Integrating these practices into daily life can lead to improved mental health and a more balanced lifestyle."
-        },
-        {
-            "headline": "The Role of Mindfulness in Anxiety Relief",
-            "body": "Mindfulness involves being fully present in the moment and accepting it without judgment. It is particularly effective in managing and reducing feelings of anxiety. Mindfulness exercises, such as mindful breathing and meditation, help center your thoughts and reduce the tumultuous stream of worries triggered by anxiety. Regular practice of mindfulness can enhance your overall emotional flexibility and resilience, making it easier to cope with the stresses of everyday life."
-        },
-        {
-            "headline": "Lifestyle Adjustments to Support Mental Health",
-            "body": "In addition to therapy and mindfulness, making certain lifestyle adjustments can significantly improve mental health. This includes establishing a routine, ensuring a healthy diet, getting adequate sleep, and engaging in regular physical activity. Social connections also play a crucial role; interacting with friends and family can alleviate feelings of loneliness and anxiety. Furthermore, reducing intake of alcohol, avoiding drugs, and quitting smoking can also help in maintaining a stable mental state. These changes can help create a more fulfilling and balanced life."
-        },
-        {
-            "headline": "Conclusion: Embracing Mental Health Awareness",
-            "body": "Mental health is an integral part of overall health and should not be overlooked. By understanding and addressing mental health issues such as stress, anxiety, and depression, adopting effective therapy options, and incorporating stress management and mindfulness exercises, individuals can lead healthier, more productive lives. Remember, seeking help is a sign of strength, not weakness. Embracing mental health awareness is essential for personal well-being and creating a supportive community for all."
+            "headline": "Understanding Mental Health: Foundations and Importance",
+            "body": "Mental health encompasses our emotional, psychological, and social well-being, influencing how we think, feel, and behave in daily life. It also helps determine how we handle stress, relate to others, and make choices. Mental health awareness is crucial as it empowers individuals to recognize early signs of mental distress and seek appropriate help. This awareness is not just about identifying mental health issues but also about promoting mental well-being to enhance quality of life and achieve a balanced lifestyle."
+        },
+        {
+            "headline": "Identifying Common Mental Health Issues: Stress, Anxiety, and Depression",
+            "body": "Mental health issues can manifest in various forms, among which stress, anxiety, and depression are the most prevalent. Stress is a response to a threat in a situation, whereas anxiety is a reaction to the stress. Recognizing the symptoms of these conditions is the first step towards management. Common signs of stress include irritability, fatigue, and difficulty concentrating. Anxiety symptoms might include excessive worry, restlessness, and trouble sleeping. Depression goes beyond occasional sadness to prolonged feelings of hopelessness and disinterest in activities once enjoyed. Awareness of these symptoms is essential for early intervention and prevention."
+        },
+        {
+            "headline": "Effective Stress Management Techniques",
+            "body": "Managing stress is pivotal for maintaining mental health and well-being. Effective stress management techniques include time management, regular physical activity, and establishing a support network. Mindfulness exercises, such as meditation and deep-breathing exercises, can also significantly reduce stress levels. Additionally, setting realistic goals and breaking up overwhelming tasks into smaller, manageable steps can prevent burnout and promote a healthier approach to work and personal challenges."
+        },
+        {
+            "headline": "Navigating Anxiety Relief: Practical Strategies",
+            "body": "Anxiety can be debilitating, but several practical strategies can help manage and reduce its effects. Cognitive-behavioral therapy (CBT) is a popular and effective form of therapy that helps individuals manage anxiety by changing negative thought patterns. Lifestyle changes, such as reducing caffeine intake and increasing physical activity, can also help alleviate symptoms. Furthermore, relaxation techniques like yoga and guided imagery provide significant relief and foster long-term mental resilience."
+        },
+        {
+            "headline": "Understanding and Addressing Depression Symptoms",
+            "body": "Depression is a complex mental health condition that requires a comprehensive approach for management. Recognizing the early signs of depression is crucial for effective treatment. These signs might include persistent sadness, loss of interest in favorite activities, and changes in appetite or sleep patterns. Treatment options vary and can include medications, therapy, and lifestyle adjustments. Engaging in regular physical activity and maintaining a routine can also help manage depression symptoms."
+        },
+        {
+            "headline": "Exploring Therapy Options: Finding What Works for You",
+            "body": "Therapy can be an invaluable tool for managing mental health issues. There are various types of therapy available, including psychotherapy, cognitive-behavioral therapy, and group therapy. Each type has its benefits, and often, a combination of therapies can be the most effective. It's important to consult with a mental health professional to determine the most appropriate therapy based on individual needs. Additionally, online therapy options have become more accessible, providing flexible alternatives for those who may face barriers to traditional therapy settings."
+        },
+        {
+            "headline": "The Role of Mindfulness Exercises in Mental Health",
+            "body": "Mindfulness exercises are a key component of mental health maintenance, helping individuals to stay present and engaged in their lives. Practices such as meditation, mindful breathing, and body scans not only reduce stress and anxiety but also enhance overall emotional resilience. Integrating mindfulness into daily routines can help maintain an even mood, improve concentration, and reduce the impact of negative emotions. Regular practice can make a significant difference in one’s mental health journey."
+        },
+        {
+            "headline": "Conclusion: Taking Action on Mental Health",
+            "body": "Mental health is an integral part of overall well-being. By understanding and addressing issues like stress, anxiety, and depression, and by exploring various therapy options and mindfulness exercises, individuals can significantly improve their quality of life. Remember, seeking help is a sign of strength, not weakness. Whether it's talking to a professional, joining a support group, or practicing mindfulness, taking action is a crucial step towards a healthier, more fulfilling life."
         }
     ]
 }</t>
